--- a/Kosten-Kalkulation/Kosten-Kalkulation.xlsx
+++ b/Kosten-Kalkulation/Kosten-Kalkulation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>KMS</t>
   </si>
@@ -92,9 +92,6 @@
     <t>REST-API</t>
   </si>
   <si>
-    <t>Artefakt zu S3</t>
-  </si>
-  <si>
     <t>GitManagementLambda</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>CodePipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">Data-Transfer </t>
-  </si>
-  <si>
     <t>API-Gateway</t>
   </si>
   <si>
@@ -267,6 +261,9 @@
   </si>
   <si>
     <t>LEGENDE:</t>
+  </si>
+  <si>
+    <t>Datentransfer Artefakt zu S3</t>
   </si>
 </sst>
 </file>
@@ -556,12 +553,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,12 +560,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,6 +576,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,84 +895,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>70</v>
+      <c r="E1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="10"/>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="G3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="12"/>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="11"/>
       <c r="L4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
-        <f>SUM(G9:G66)</f>
+        <f>SUM(G9:G64)</f>
         <v>6.4011699994140629</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="21"/>
       <c r="L5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" s="6">
         <v>5.0000000000000001E-3</v>
@@ -987,7 +984,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H6" s="3"/>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M6" s="6">
         <v>0.01</v>
@@ -995,22 +992,22 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M7" s="6">
         <v>1.7500000000000002E-2</v>
@@ -1029,7 +1026,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="L8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
@@ -1053,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M9" s="6">
         <v>0.25</v>
@@ -1061,7 +1058,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <f>E2*3</f>
@@ -1083,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10" s="6">
         <v>0.8</v>
@@ -1102,10 +1099,10 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="L12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N12" s="6">
         <v>2.4500000000000001E-2</v>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1144,10 +1141,10 @@
         <v>2.87109375E-8</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N14" s="6">
         <v>1.6666700000000001E-4</v>
@@ -1184,10 +1181,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1198,14 +1204,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="17"/>
+      <c r="K18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1215,10 +1221,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="K19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="19"/>
+      <c r="K19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -1230,14 +1236,14 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="21"/>
+      <c r="K20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1297,7 +1303,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1381,438 +1387,425 @@
         <f>E31*D31</f>
         <v>0</v>
       </c>
-      <c r="I31">
-        <f>SUM(G31)</f>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>N16</f>
+        <v>0.01</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <f>D32*E2*E32/1024</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
-        <f>I3</f>
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D33">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>N16</f>
         <v>0.01</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F33" t="s">
         <v>8</v>
       </c>
-      <c r="G34">
-        <f>D34*E2*E34/1024</f>
+      <c r="G33">
+        <f>D33*E33*E2/1024</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>SUM(G31:G33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <f>E3</f>
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0.01</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <f>D35*E35*E2/1024</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>SUM(G34:G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="A35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="D36">
         <f>E2*E4</f>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E36">
         <f xml:space="preserve"> 3.7 /1000000</f>
         <v>3.7000000000000002E-6</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G38">
-        <f>E38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f>SUM(G38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="G36">
+        <f>E36*D36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>SUM(G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f>E39*D39*E2/1024</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <f>I4</f>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.01</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <f>E41*D41*E2/1024</f>
-        <v>0</v>
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <f>D36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>46</v>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3600</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
       </c>
       <c r="D45">
-        <f>D38</f>
+        <v>128</v>
+      </c>
+      <c r="F45" s="4">
+        <f>D45/1024*D44/1000*D43</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>F45*N14</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
       <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="15">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>128</v>
-      </c>
-      <c r="F47" s="4">
-        <f>D47/1024*D46/1000*D45</f>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f>F47*N14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48">
+      <c r="C46">
         <f>15/1024</f>
         <v>1.46484375E-2</v>
       </c>
-      <c r="D48">
-        <f>D45*C48</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D46">
+        <f>D43*C46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>N16</f>
         <v>0.01</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F46" t="s">
         <v>8</v>
       </c>
-      <c r="G48">
-        <f>D48*E48/1024</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="G46">
+        <f>D46*E46/1024</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51">
+      <c r="D49">
         <f>E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="12">
         <f>(31000 +92000)/2</f>
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D53">
+      <c r="D51">
         <v>128</v>
       </c>
-      <c r="F53" s="4">
-        <f>D52/1000*D53/1024</f>
+      <c r="F51" s="4">
+        <f>D50/1000*D51/1024</f>
         <v>7.6875</v>
       </c>
-      <c r="G53">
-        <f>F53*D51*N14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="G51">
+        <f>F51*D49*N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C54">
+      <c r="C52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54">
-        <f>C54*D51</f>
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D52">
+        <f>C52*D49</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>N16</f>
         <v>0.01</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F52" t="s">
         <v>8</v>
       </c>
-      <c r="G54">
-        <f>E54*D54/1024</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="G52">
+        <f>E52*D52/1024</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D57">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55">
         <f>E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="12">
         <f>(500+92000)/2*12</f>
         <v>555000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
+      <c r="D57">
         <v>128</v>
       </c>
-      <c r="F59" s="4">
-        <f>D58/1000*D59/1024</f>
+      <c r="F57" s="4">
+        <f>D56/1000*D57/1024</f>
         <v>69.375</v>
       </c>
-      <c r="G59">
-        <f>F59*D57*N14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="G57">
+        <f>F57*D55*N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C60">
+      <c r="C58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D60">
-        <f>C60*D57</f>
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D58">
+        <f>C58*D55</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>N16</f>
         <v>0.01</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F58" t="s">
         <v>8</v>
       </c>
-      <c r="G60">
-        <f>E60*D60/1024</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="G58">
+        <f>E58*D58/1024</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63">
+      <c r="D61">
         <f>E5*12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="12">
         <f>(300+635900)/2</f>
         <v>318100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D65">
+      <c r="D63">
         <v>128</v>
       </c>
-      <c r="F65" s="4">
-        <f>D65/1024*D64/1000</f>
+      <c r="F63" s="4">
+        <f>D63/1024*D62/1000</f>
         <v>39.762500000000003</v>
       </c>
-      <c r="G65">
-        <f>F65*D63*N14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="G63">
+        <f>F63*D61*N14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C66">
+      <c r="C64">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D66">
-        <f>C66*D63</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D64">
+        <f>C64*D61</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>N16</f>
         <v>0.01</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F64" t="s">
         <v>8</v>
       </c>
-      <c r="G66">
-        <f>E66*D66</f>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <f>SUM(G45:G66)</f>
+      <c r="G64">
+        <f>E64*D64</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>SUM(G43:G64)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -1820,16 +1813,18 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C41:G41"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15">
-      <formula1>$K$18:$K$36</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
       <formula1>$L$5:$L$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15">
+      <formula1>$K$18:$K$34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
